--- a/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250628.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Webstaurant/Webstaurant_Bakery_20250628.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,222 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>500CTOUT160</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Java Box (160oz)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>189.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5000TOUT96</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Java Box (96oz)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>163.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24510GCC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cake Circle - 10" (Gold)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>109.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>245CCGR2518</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cake Board - Full Sheet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>245882WB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x2.5 (window)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>68.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>130TONG10BLK</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Black Plastic Tongs - 10.5"</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5004CAFE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cup - Espresso (4oz)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>43306HCUPC300</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Container - Muffin (6 Pack)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
